--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_34.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_34.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9932895171518115</v>
+        <v>0.9165403156662423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7166868901613621</v>
+        <v>0.7081210735561509</v>
       </c>
       <c r="D2" t="n">
-        <v>0.707722060493005</v>
+        <v>0.6955290154308937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9959651761984694</v>
+        <v>0.1371580588681558</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02816246099034928</v>
+        <v>0.350262441241586</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89451607002789</v>
+        <v>1.951795725108896</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04546124236786</v>
+        <v>1.089075057561659</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01104921124148966</v>
+        <v>0.439253142143713</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2720739445337199</v>
+        <v>1.814424429325215</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1678167482414949</v>
+        <v>0.59182974007867</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003928087520891</v>
+        <v>0.7138525108556879</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1749610546426947</v>
+        <v>0.6170251573702736</v>
       </c>
       <c r="N2" t="n">
-        <v>137.1395307167753</v>
+        <v>36.09814514672703</v>
       </c>
       <c r="O2" t="n">
-        <v>216.3664593332084</v>
+        <v>56.81903416948644</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.993380317479315</v>
+        <v>0.916835368494231</v>
       </c>
       <c r="C3" t="n">
-        <v>0.716675294309379</v>
+        <v>0.7075158149751427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7076813114409558</v>
+        <v>0.6956015388971106</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9957188056408774</v>
+        <v>0.1196152180741308</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02778139144005285</v>
+        <v>0.3490241676409663</v>
       </c>
       <c r="G3" t="n">
-        <v>1.894593611543494</v>
+        <v>1.955843092027057</v>
       </c>
       <c r="H3" t="n">
-        <v>1.045606999364275</v>
+        <v>1.088815645328153</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01172388762599101</v>
+        <v>0.4481838020636449</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2734973052970592</v>
+        <v>1.81446747255038</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1666775073009338</v>
+        <v>0.5907826737819638</v>
       </c>
       <c r="L3" t="n">
-        <v>1.003874936109669</v>
+        <v>0.7148641205516491</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1737733138567401</v>
+        <v>0.6159335152935906</v>
       </c>
       <c r="N3" t="n">
-        <v>137.1667777101508</v>
+        <v>36.10522822184468</v>
       </c>
       <c r="O3" t="n">
-        <v>216.3937063265839</v>
+        <v>56.82611724460409</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9934664120457292</v>
+        <v>0.9171288326024144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7166619680009756</v>
+        <v>0.706082979578437</v>
       </c>
       <c r="D4" t="n">
-        <v>0.707634584649286</v>
+        <v>0.6956483916622789</v>
       </c>
       <c r="E4" t="n">
-        <v>0.995454924392316</v>
+        <v>0.1029397637775271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02742007096238058</v>
+        <v>0.3477925615575062</v>
       </c>
       <c r="G4" t="n">
-        <v>1.89468272462915</v>
+        <v>1.965424468922428</v>
       </c>
       <c r="H4" t="n">
-        <v>1.045774138388702</v>
+        <v>1.088648055703825</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01244651637050225</v>
+        <v>0.456672895311533</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2749192852054252</v>
+        <v>1.813393301958327</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1655900690330812</v>
+        <v>0.5897394013948077</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003824539290305</v>
+        <v>0.7158702832082779</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1726395810905174</v>
+        <v>0.6148458286410418</v>
       </c>
       <c r="N4" t="n">
-        <v>137.1929600337449</v>
+        <v>36.11229812883374</v>
       </c>
       <c r="O4" t="n">
-        <v>216.4198886501779</v>
+        <v>56.83318715159314</v>
       </c>
     </row>
     <row r="5">
@@ -659,95 +659,95 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.993547909150902</v>
+        <v>0.9174430622482139</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7166468827906658</v>
+        <v>0.7019510985778485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7075814430171936</v>
+        <v>0.6956687976910465</v>
       </c>
       <c r="E5" t="n">
-        <v>0.995174131638504</v>
+        <v>0.08855312227917289</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02707804504603782</v>
+        <v>0.3464738069548877</v>
       </c>
       <c r="G5" t="n">
-        <v>1.894783599499953</v>
+        <v>1.993054376198926</v>
       </c>
       <c r="H5" t="n">
-        <v>1.045964222925368</v>
+        <v>1.088575064522133</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01321545662776238</v>
+        <v>0.463996806194629</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2763401835969548</v>
+        <v>1.810110585095365</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1645540793965249</v>
+        <v>0.5886202570035182</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003776833667765</v>
+        <v>0.7169476419938763</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1715594872303388</v>
+        <v>0.6136790399560667</v>
       </c>
       <c r="N5" t="n">
-        <v>137.2180640506894</v>
+        <v>36.11989611282655</v>
       </c>
       <c r="O5" t="n">
-        <v>216.4449926671224</v>
+        <v>56.84078513558596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_4</t>
+          <t>model_1_34_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.993624939946992</v>
+        <v>0.9225118498104694</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7166301465315577</v>
+        <v>0.6883705833145988</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7075231704387115</v>
+        <v>0.6842511957336643</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9948770779435324</v>
+        <v>-0.245036526465787</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02675476327347099</v>
+        <v>0.3252011898839833</v>
       </c>
       <c r="G6" t="n">
-        <v>1.894895514941672</v>
+        <v>2.0838673442968</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04617266055976</v>
+        <v>1.12941516469309</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01402892685279707</v>
+        <v>0.6338196838419859</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2777544826073793</v>
+        <v>1.713369822186949</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1635688334416767</v>
+        <v>0.5702641404507066</v>
       </c>
       <c r="L6" t="n">
-        <v>1.003731742470054</v>
+        <v>0.7343263422073236</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1705322973154524</v>
+        <v>0.5945414655192025</v>
       </c>
       <c r="N6" t="n">
-        <v>137.2420855103881</v>
+        <v>36.24662248477068</v>
       </c>
       <c r="O6" t="n">
-        <v>216.4690141268212</v>
+        <v>56.96751150753008</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9936976022769261</v>
+        <v>0.9221461285712921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7166118597480867</v>
+        <v>0.6881818976943769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7074590254636148</v>
+        <v>0.6871119721934356</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9945643170953596</v>
+        <v>-0.1911202675502501</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02644981501884761</v>
+        <v>0.3267360436887962</v>
       </c>
       <c r="G7" t="n">
-        <v>1.895017798746946</v>
+        <v>2.085129085908041</v>
       </c>
       <c r="H7" t="n">
-        <v>1.046402103416342</v>
+        <v>1.119182333173838</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01488541051838301</v>
+        <v>0.6063721467992025</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2791652614499273</v>
+        <v>1.728532256194039</v>
       </c>
       <c r="K7" t="n">
-        <v>0.162633990970054</v>
+        <v>0.571608295678777</v>
       </c>
       <c r="L7" t="n">
-        <v>1.003689208423263</v>
+        <v>0.7330724408158587</v>
       </c>
       <c r="M7" t="n">
-        <v>0.169557656664422</v>
+        <v>0.5959428442181166</v>
       </c>
       <c r="N7" t="n">
-        <v>137.2650122286373</v>
+        <v>36.23720527979121</v>
       </c>
       <c r="O7" t="n">
-        <v>216.4919408450703</v>
+        <v>56.95809430255062</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_6</t>
+          <t>model_1_34_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9937659843197544</v>
+        <v>0.9230733231057371</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7165920053214645</v>
+        <v>0.6878912622758462</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7073897028496987</v>
+        <v>0.6681635439004505</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9942361493382165</v>
+        <v>-0.5056961146722208</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02616283021355706</v>
+        <v>0.3228448065755353</v>
       </c>
       <c r="G8" t="n">
-        <v>1.89515056538919</v>
+        <v>2.087072566290009</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046650066386764</v>
+        <v>1.186959762484846</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01578408541713449</v>
+        <v>0.7665155319359849</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2805767018240802</v>
+        <v>1.637066602938894</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1617492819568515</v>
+        <v>0.5681943387394275</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003649179910388</v>
+        <v>0.7362513935053843</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1686352837569274</v>
+        <v>0.592383548063994</v>
       </c>
       <c r="N8" t="n">
-        <v>137.2868311393069</v>
+        <v>36.26116709244585</v>
       </c>
       <c r="O8" t="n">
-        <v>216.51375975574</v>
+        <v>56.98205611520525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_7</t>
+          <t>model_1_34_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9938302899505181</v>
+        <v>0.9230780909613118</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7165706526195914</v>
+        <v>0.6877649004204411</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7073154407693655</v>
+        <v>0.6666606422802589</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9938935782480636</v>
+        <v>-0.5293715836984321</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02589295323766499</v>
+        <v>0.32282479690564</v>
       </c>
       <c r="G9" t="n">
-        <v>1.895293351004935</v>
+        <v>2.087917548598946</v>
       </c>
       <c r="H9" t="n">
-        <v>1.046915697542153</v>
+        <v>1.192335554437029</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01672220329452248</v>
+        <v>0.7785681729421091</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2819774647983514</v>
+        <v>1.628881621282805</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1609128746796383</v>
+        <v>0.5681767303450925</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003611537589941</v>
+        <v>0.7362677404387832</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1677632688903214</v>
+        <v>0.5923651900438577</v>
       </c>
       <c r="N9" t="n">
-        <v>137.3075688461236</v>
+        <v>36.26129105473116</v>
       </c>
       <c r="O9" t="n">
-        <v>216.5344974625567</v>
+        <v>56.98218007749057</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_8</t>
+          <t>model_1_34_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9938905887609532</v>
+        <v>0.9230486183162095</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7165478316259575</v>
+        <v>0.6868319944343096</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7072362223036027</v>
+        <v>0.6579871574969292</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9935366979355793</v>
+        <v>-0.6683915687858011</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02563989202954361</v>
+        <v>0.3229484872922709</v>
       </c>
       <c r="G10" t="n">
-        <v>1.895445955094446</v>
+        <v>2.094155895223844</v>
       </c>
       <c r="H10" t="n">
-        <v>1.047199057400836</v>
+        <v>1.223360106589455</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01769950643204048</v>
+        <v>0.8493400749086456</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2833752863011336</v>
+        <v>1.576160817482257</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1601246140652448</v>
+        <v>0.5682855684356861</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003576240725296</v>
+        <v>0.7361666913698612</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1669414503896488</v>
+        <v>0.5924786615972938</v>
       </c>
       <c r="N10" t="n">
-        <v>137.3272117159096</v>
+        <v>36.26052490109074</v>
       </c>
       <c r="O10" t="n">
-        <v>216.5541403323426</v>
+        <v>56.98141392385015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_34_9</t>
+          <t>model_1_34_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9939469412532378</v>
+        <v>0.9196467446275982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7165235756837695</v>
+        <v>0.6864733081460397</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7071519542391382</v>
+        <v>0.6942845343300021</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9931661322455505</v>
+        <v>-0.005852391116465627</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02540339267449275</v>
+        <v>0.3372254234259313</v>
       </c>
       <c r="G11" t="n">
-        <v>1.895608154691546</v>
+        <v>2.096554432085104</v>
       </c>
       <c r="H11" t="n">
-        <v>1.047500479381282</v>
+        <v>1.093526494300388</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01871428645450946</v>
+        <v>0.5120564987268772</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2847731760822824</v>
+        <v>1.777871475632025</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1593844179162215</v>
+        <v>0.5807111359582587</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003543253900544</v>
+        <v>0.7245031244374796</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1661697425581443</v>
+        <v>0.605433211253773</v>
       </c>
       <c r="N11" t="n">
-        <v>137.3457450880308</v>
+        <v>36.17400732001747</v>
       </c>
       <c r="O11" t="n">
-        <v>216.5726737044638</v>
+        <v>56.89489634277687</v>
       </c>
     </row>
   </sheetData>
